--- a/notebooks/assets/test/kerasnh3_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_1_mountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.726</v>
+        <v>6.248</v>
       </c>
       <c r="C2" t="n">
-        <v>2.967</v>
+        <v>3.253</v>
       </c>
       <c r="D2" t="n">
-        <v>5.44</v>
+        <v>5.565</v>
       </c>
       <c r="E2" t="n">
-        <v>7.736</v>
+        <v>7.325</v>
       </c>
       <c r="F2" t="n">
-        <v>4.552</v>
+        <v>4.305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.97</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.602</v>
+        <v>4.245</v>
       </c>
       <c r="D3" t="n">
-        <v>57.31</v>
+        <v>8.445</v>
       </c>
       <c r="E3" t="n">
-        <v>113.637</v>
+        <v>10.109</v>
       </c>
       <c r="F3" t="n">
-        <v>51.581</v>
+        <v>7.094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>71.133</v>
       </c>
       <c r="C4" t="n">
-        <v>0.599</v>
+        <v>19.21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.596</v>
+        <v>74.444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.496</v>
+        <v>123.832</v>
       </c>
       <c r="F4" t="n">
-        <v>0.346</v>
+        <v>51.589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.66</v>
+        <v>0.708</v>
       </c>
       <c r="C5" t="n">
-        <v>4.05</v>
+        <v>0.479</v>
       </c>
       <c r="D5" t="n">
-        <v>7.537</v>
+        <v>0.505</v>
       </c>
       <c r="E5" t="n">
-        <v>6.583</v>
+        <v>0.511</v>
       </c>
       <c r="F5" t="n">
-        <v>2.601</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.718</v>
+        <v>6.66</v>
       </c>
       <c r="C6" t="n">
-        <v>31.198</v>
+        <v>4.05</v>
       </c>
       <c r="D6" t="n">
-        <v>115.937</v>
+        <v>7.537</v>
       </c>
       <c r="E6" t="n">
-        <v>102.716</v>
+        <v>6.583</v>
       </c>
       <c r="F6" t="n">
-        <v>13.809</v>
+        <v>2.601</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.289</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.473</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.773</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>69.718</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.198</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115.937</v>
+      </c>
+      <c r="E8" t="n">
+        <v>102.716</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.809</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>0.68</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>0.217</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>0.212</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.546</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>0.822</v>
       </c>
     </row>

--- a/notebooks/assets/test/kerasnh3_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.248</v>
+        <v>5.289</v>
       </c>
       <c r="C2" t="n">
-        <v>3.253</v>
+        <v>2.325</v>
       </c>
       <c r="D2" t="n">
-        <v>5.565</v>
+        <v>4.748</v>
       </c>
       <c r="E2" t="n">
-        <v>7.325</v>
+        <v>5.511</v>
       </c>
       <c r="F2" t="n">
-        <v>4.305</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.210000000000001</v>
+        <v>6.78</v>
       </c>
       <c r="C3" t="n">
-        <v>4.245</v>
+        <v>3.179</v>
       </c>
       <c r="D3" t="n">
-        <v>8.445</v>
+        <v>7.127</v>
       </c>
       <c r="E3" t="n">
-        <v>10.109</v>
+        <v>7.178</v>
       </c>
       <c r="F3" t="n">
-        <v>7.094</v>
+        <v>4.693</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.133</v>
+        <v>46.943</v>
       </c>
       <c r="C4" t="n">
-        <v>19.21</v>
+        <v>10.671</v>
       </c>
       <c r="D4" t="n">
-        <v>74.444</v>
+        <v>54.454</v>
       </c>
       <c r="E4" t="n">
-        <v>123.832</v>
+        <v>59.729</v>
       </c>
       <c r="F4" t="n">
-        <v>51.589</v>
+        <v>22.369</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.708</v>
+        <v>0.792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.479</v>
+        <v>0.731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.505</v>
+        <v>0.655</v>
       </c>
       <c r="E5" t="n">
-        <v>0.511</v>
+        <v>0.757</v>
       </c>
       <c r="F5" t="n">
-        <v>0.372</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/kerasnh3_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.289</v>
+        <v>5.441</v>
       </c>
       <c r="C2" t="n">
-        <v>2.325</v>
+        <v>2.433</v>
       </c>
       <c r="D2" t="n">
-        <v>4.748</v>
+        <v>4.971</v>
       </c>
       <c r="E2" t="n">
-        <v>5.511</v>
+        <v>5.729</v>
       </c>
       <c r="F2" t="n">
-        <v>3.272</v>
+        <v>3.219</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.78</v>
+        <v>6.896</v>
       </c>
       <c r="C3" t="n">
-        <v>3.179</v>
+        <v>3.283</v>
       </c>
       <c r="D3" t="n">
-        <v>7.127</v>
+        <v>7.496</v>
       </c>
       <c r="E3" t="n">
-        <v>7.178</v>
+        <v>7.618</v>
       </c>
       <c r="F3" t="n">
-        <v>4.693</v>
+        <v>4.613</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.943</v>
+        <v>49.263</v>
       </c>
       <c r="C4" t="n">
-        <v>10.671</v>
+        <v>11.191</v>
       </c>
       <c r="D4" t="n">
-        <v>54.454</v>
+        <v>60.601</v>
       </c>
       <c r="E4" t="n">
-        <v>59.729</v>
+        <v>70.032</v>
       </c>
       <c r="F4" t="n">
-        <v>22.369</v>
+        <v>21.714</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.792</v>
+        <v>0.785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.731</v>
+        <v>0.722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.655</v>
+        <v>0.618</v>
       </c>
       <c r="E5" t="n">
-        <v>0.757</v>
+        <v>0.726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.713</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="6">
